--- a/src/data/lab05/out/people.xlsx
+++ b/src/data/lab05/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,8 +423,7 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,75 +442,89 @@
           <t>city</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>department</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Анна</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>IT</t>
+          <t>SPB</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Marketing</t>
+          <t>Moscow</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Мария</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Design</t>
+          <t>Kazan</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dana</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SPB</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Andrey</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Novosibirsk</t>
         </is>
       </c>
     </row>

--- a/src/data/lab05/out/people.xlsx
+++ b/src/data/lab05/out/people.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,18 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -442,89 +437,75 @@
           <t>city</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>department</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SPB</t>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>IT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Marketing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Мария</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kazan</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Dana</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SPB</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Andrey</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Novosibirsk</t>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Design</t>
         </is>
       </c>
     </row>
